--- a/xlsx/劳工_intext.xlsx
+++ b/xlsx/劳工_intext.xlsx
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E9%A0%98</t>
   </si>
   <si>
-    <t>藍領</t>
+    <t>蓝领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>人力資源</t>
+    <t>人力资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E6%B3%95</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B3%8A</t>
   </si>
   <si>
-    <t>工賊</t>
+    <t>工贼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%BF%90%E5%8A%A8</t>
